--- a/Lhub_SIQ.xlsx
+++ b/Lhub_SIQ.xlsx
@@ -441,9 +441,6 @@
     <t>All articles that needs to be approved / with ability to add new categories and sections</t>
   </si>
   <si>
-    <t>SIQ_43</t>
-  </si>
-  <si>
     <t>What should the search results page include ?</t>
   </si>
   <si>
@@ -457,6 +454,9 @@
   </si>
   <si>
     <t>4 categories that are related to technology and science</t>
+  </si>
+  <si>
+    <t>SIQ_14</t>
   </si>
 </sst>
 </file>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5"/>
@@ -896,7 +896,7 @@
     <col min="8" max="16384" width="14.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+    <row r="1" spans="1:9" ht="15.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -920,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
@@ -988,7 +988,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="4" t="s">
@@ -1276,7 +1276,7 @@
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>52</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>55</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>58</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>60</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>62</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>65</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>68</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>71</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>74</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>77</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>80</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>83</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>86</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>89</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>93</v>
@@ -1679,9 +1679,9 @@
         <v>43470</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="28.5" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>96</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>99</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>102</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>105</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>108</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="35" spans="1:9" ht="26">
       <c r="A35" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>111</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>114</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>117</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="38" spans="1:9" ht="26">
       <c r="A38" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>121</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>124</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="40" spans="1:9" ht="26">
       <c r="A40" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>128</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="41" spans="1:9" ht="26">
       <c r="A41" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>132</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>136</v>
@@ -2038,19 +2038,19 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>11</v>
